--- a/output7/【河洛文讀注音-閩拼調號】《漁父》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《漁父》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3666C5C-9B48-4E80-B630-21E882F3AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC5EC81-0AEA-4720-843E-C809D09467D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -10444,7 +10444,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
